--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F37795-D803-CD4A-AA20-D9BBFBEB6C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BA5124-1E91-1C45-8055-2105C7AB6CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>League_ID</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Player_Gender</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Uersname</t>
+  </si>
+  <si>
+    <t>Smitty101</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,9 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -531,26 +545,40 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -590,18 +618,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -614,16 +650,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -638,6 +674,9 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BA5124-1E91-1C45-8055-2105C7AB6CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>League_ID</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Smitty101</t>
+  </si>
+  <si>
+    <t>123456A</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -577,8 +580,8 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2">
-        <v>123456</v>
+      <c r="D2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Documents/GitHub/SEFinal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/859bc52c1c1b6f5c/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0F5825E-4A9A-45A5-BA32-5C77FB1F5019}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>League_ID</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>123456A</t>
+  </si>
+  <si>
+    <t>Jamisons</t>
+  </si>
+  <si>
+    <t>Jamies</t>
+  </si>
+  <si>
+    <t>Leos</t>
   </si>
 </sst>
 </file>
@@ -402,9 +411,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,9 +444,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -480,9 +489,9 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -490,7 +499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -498,7 +507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -506,7 +515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -514,7 +523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -522,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -530,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -550,13 +559,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -570,7 +579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -594,13 +603,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -609,6 +620,30 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -627,9 +662,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -660,9 +695,9 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -696,7 +731,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/859bc52c1c1b6f5c/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0F5825E-4A9A-45A5-BA32-5C77FB1F5019}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2D84B5-65A4-474D-9C6C-18F637A556D7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>League_ID</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Leos</t>
+  </si>
+  <si>
+    <t>Player_Count</t>
   </si>
 </sst>
 </file>
@@ -603,15 +606,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -621,29 +624,41 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4">
         <v>2</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/859bc52c1c1b6f5c/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2D84B5-65A4-474D-9C6C-18F637A556D7}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4038A29-DB3F-47D2-B064-421B5C98DA64}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,28 @@
     <sheet name="Sport" sheetId="3" r:id="rId3"/>
     <sheet name="Organizer" sheetId="4" r:id="rId4"/>
     <sheet name="Team" sheetId="5" r:id="rId5"/>
-    <sheet name="Referee" sheetId="6" r:id="rId6"/>
-    <sheet name="Player" sheetId="7" r:id="rId7"/>
-    <sheet name="Highlight" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
+    <sheet name="Referee" sheetId="6" r:id="rId7"/>
+    <sheet name="Player" sheetId="7" r:id="rId8"/>
+    <sheet name="Highlight" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>League_ID</t>
   </si>
@@ -144,6 +156,12 @@
   </si>
   <si>
     <t>Player_Count</t>
+  </si>
+  <si>
+    <t>Player Count</t>
+  </si>
+  <si>
+    <t>Team Name</t>
   </si>
 </sst>
 </file>
@@ -608,7 +626,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -667,6 +685,63 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE274071-4D5A-44F3-BAA5-0F322A9DA9FC}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>Team!B2</f>
+        <v>Jamisons</v>
+      </c>
+      <c r="B2">
+        <f>Team!D2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>Team!B3</f>
+        <v>Jamies</v>
+      </c>
+      <c r="B3">
+        <f>Team!D3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>Team!B4</f>
+        <v>Leos</v>
+      </c>
+      <c r="B4">
+        <f>Team!D4</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -698,7 +773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -737,7 +812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/859bc52c1c1b6f5c/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4038A29-DB3F-47D2-B064-421B5C98DA64}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05DBFBD2-50C6-495D-8EB4-3F91505B00ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Sport" sheetId="3" r:id="rId3"/>
     <sheet name="Organizer" sheetId="4" r:id="rId4"/>
     <sheet name="Team" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
-    <sheet name="Referee" sheetId="6" r:id="rId7"/>
-    <sheet name="Player" sheetId="7" r:id="rId8"/>
-    <sheet name="Highlight" sheetId="8" r:id="rId9"/>
+    <sheet name="ViewTeams" sheetId="9" r:id="rId6"/>
+    <sheet name="ViewStandings" sheetId="10" r:id="rId7"/>
+    <sheet name="Referee" sheetId="6" r:id="rId8"/>
+    <sheet name="Player" sheetId="7" r:id="rId9"/>
+    <sheet name="Highlight" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>League_ID</t>
   </si>
@@ -162,6 +163,21 @@
   </si>
   <si>
     <t>Team Name</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Margs</t>
   </si>
 </sst>
 </file>
@@ -456,6 +472,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -688,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE274071-4D5A-44F3-BAA5-0F322A9DA9FC}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -742,6 +773,77 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D878CBF-391C-45AD-BD97-B3460739635C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -773,7 +875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -810,19 +912,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/859bc52c1c1b6f5c/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05DBFBD2-50C6-495D-8EB4-3F91505B00ED}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442E994E-A459-45BF-BC55-77B8F42F32AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Organizer" sheetId="4" r:id="rId4"/>
     <sheet name="Team" sheetId="5" r:id="rId5"/>
     <sheet name="ViewTeams" sheetId="9" r:id="rId6"/>
-    <sheet name="ViewStandings" sheetId="10" r:id="rId7"/>
-    <sheet name="Referee" sheetId="6" r:id="rId8"/>
-    <sheet name="Player" sheetId="7" r:id="rId9"/>
-    <sheet name="Highlight" sheetId="8" r:id="rId10"/>
+    <sheet name="ViewLeagueName" sheetId="11" r:id="rId7"/>
+    <sheet name="ViewStandings" sheetId="10" r:id="rId8"/>
+    <sheet name="Referee" sheetId="6" r:id="rId9"/>
+    <sheet name="Player" sheetId="7" r:id="rId10"/>
+    <sheet name="Highlight" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>League_ID</t>
   </si>
@@ -178,6 +179,24 @@
   </si>
   <si>
     <t>Margs</t>
+  </si>
+  <si>
+    <t>WAC Sports</t>
+  </si>
+  <si>
+    <t>TeamName</t>
+  </si>
+  <si>
+    <t>TeamCode</t>
+  </si>
+  <si>
+    <t>I hate Sports</t>
+  </si>
+  <si>
+    <t>ABC League</t>
+  </si>
+  <si>
+    <t>JMU Sports</t>
   </si>
 </sst>
 </file>
@@ -442,10 +461,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -467,12 +486,56 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -773,11 +836,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A23BAA-6B4E-425F-AEA9-15E00AFFDB8F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D878CBF-391C-45AD-BD97-B3460739635C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -843,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -873,43 +986,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/859bc52c1c1b6f5c/Documents/GitHub/SEFinal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05DBFBD2-50C6-495D-8EB4-3F91505B00ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C97FBCB-A6C0-3248-8423-6518BBB5E134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League" sheetId="1" r:id="rId1"/>
@@ -162,22 +162,22 @@
     <t>Player Count</t>
   </si>
   <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Margs</t>
+  </si>
+  <si>
     <t>Team Name</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins</t>
-  </si>
-  <si>
-    <t>Losses</t>
-  </si>
-  <si>
-    <t>Ties</t>
-  </si>
-  <si>
-    <t>Margs</t>
   </si>
 </sst>
 </file>
@@ -448,9 +448,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -496,9 +496,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -541,9 +541,9 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -551,7 +551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -559,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -567,7 +567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -583,7 +583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -591,7 +591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -615,9 +615,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -631,7 +631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -661,9 +661,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -677,7 +677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -688,7 +688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -699,7 +699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -719,25 +719,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE274071-4D5A-44F3-BAA5-0F322A9DA9FC}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>Team!B2</f>
         <v>Jamisons</v>
@@ -747,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>Team!B3</f>
         <v>Jamies</v>
@@ -757,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>Team!B4</f>
         <v>Leos</v>
@@ -776,27 +774,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D878CBF-391C-45AD-BD97-B3460739635C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -810,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -824,9 +822,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -854,9 +852,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -887,9 +885,9 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>

--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/859bc52c1c1b6f5c/Documents/GitHub/SEFinal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{982301D6-2010-2945-B8C6-5365A1C0ED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442E994E-A459-45BF-BC55-77B8F42F32AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1BFCA-F4C3-5441-AECF-62CDF3B5E185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="2740" windowWidth="26760" windowHeight="11380" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Sport" sheetId="3" r:id="rId3"/>
     <sheet name="Organizer" sheetId="4" r:id="rId4"/>
     <sheet name="Team" sheetId="5" r:id="rId5"/>
-    <sheet name="ViewTeams" sheetId="9" r:id="rId6"/>
-    <sheet name="ViewLeagueName" sheetId="11" r:id="rId7"/>
-    <sheet name="ViewStandings" sheetId="10" r:id="rId8"/>
-    <sheet name="Referee" sheetId="6" r:id="rId9"/>
-    <sheet name="Player" sheetId="7" r:id="rId10"/>
-    <sheet name="Highlight" sheetId="8" r:id="rId11"/>
+    <sheet name="ViewTeams" sheetId="6" r:id="rId6"/>
+    <sheet name="ViewLeagueName" sheetId="7" r:id="rId7"/>
+    <sheet name="ViewStandings" sheetId="8" r:id="rId8"/>
+    <sheet name="Referee" sheetId="9" r:id="rId9"/>
+    <sheet name="Player" sheetId="10" r:id="rId10"/>
+    <sheet name="Highlight" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,6 +58,9 @@
     <t>Games</t>
   </si>
   <si>
+    <t>WAC Sports</t>
+  </si>
+  <si>
     <t>Game_ID</t>
   </si>
   <si>
@@ -106,18 +109,81 @@
     <t>Org_Name</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>Timmm</t>
   </si>
   <si>
+    <t>Smitty101</t>
+  </si>
+  <si>
+    <t>123456A</t>
+  </si>
+  <si>
     <t>Team_ID</t>
   </si>
   <si>
     <t>Team_Name</t>
   </si>
   <si>
+    <t>Player_Count</t>
+  </si>
+  <si>
+    <t>Jamisons</t>
+  </si>
+  <si>
+    <t>Jamies</t>
+  </si>
+  <si>
+    <t>Leos</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Player Count</t>
+  </si>
+  <si>
+    <t>TeamName</t>
+  </si>
+  <si>
+    <t>TeamCode</t>
+  </si>
+  <si>
+    <t>JMU Sports</t>
+  </si>
+  <si>
+    <t>ABC League</t>
+  </si>
+  <si>
+    <t>I hate Sports</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Margs</t>
+  </si>
+  <si>
     <t>Ref_Name</t>
   </si>
   <si>
+    <t>Uersname</t>
+  </si>
+  <si>
     <t>Player_ID</t>
   </si>
   <si>
@@ -131,72 +197,6 @@
   </si>
   <si>
     <t>Player_Gender</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Uersname</t>
-  </si>
-  <si>
-    <t>Smitty101</t>
-  </si>
-  <si>
-    <t>123456A</t>
-  </si>
-  <si>
-    <t>Jamisons</t>
-  </si>
-  <si>
-    <t>Jamies</t>
-  </si>
-  <si>
-    <t>Leos</t>
-  </si>
-  <si>
-    <t>Player_Count</t>
-  </si>
-  <si>
-    <t>Player Count</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins</t>
-  </si>
-  <si>
-    <t>Losses</t>
-  </si>
-  <si>
-    <t>Ties</t>
-  </si>
-  <si>
-    <t>Margs</t>
-  </si>
-  <si>
-    <t>WAC Sports</t>
-  </si>
-  <si>
-    <t>TeamName</t>
-  </si>
-  <si>
-    <t>TeamCode</t>
-  </si>
-  <si>
-    <t>I hate Sports</t>
-  </si>
-  <si>
-    <t>ABC League</t>
-  </si>
-  <si>
-    <t>JMU Sports</t>
   </si>
 </sst>
 </file>
@@ -240,9 +240,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,9 +467,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,9 +486,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -508,26 +508,26 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -536,15 +536,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -559,32 +561,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -604,62 +606,62 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -678,34 +680,34 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -724,25 +726,25 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -751,9 +753,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -762,9 +764,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -779,28 +781,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE274071-4D5A-44F3-BAA5-0F322A9DA9FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>Team!B2</f>
         <v>Jamisons</v>
@@ -810,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>Team!B3</f>
         <v>Jamies</v>
@@ -820,7 +822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>Team!B4</f>
         <v>Leos</v>
@@ -836,45 +838,45 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A23BAA-6B4E-425F-AEA9-15E00AFFDB8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -886,32 +888,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D878CBF-391C-45AD-BD97-B3460739635C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -923,9 +925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -937,9 +939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -957,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -967,20 +969,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyuyao/Documents/GitHub/SEFinal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/859bc52c1c1b6f5c/Documents/GitHub/SEFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1BFCA-F4C3-5441-AECF-62CDF3B5E185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_A4CF3CBBB99409C498A2798D8AE838D6F5E12B3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F088506-930B-4905-9AA1-1AA202D96E8E}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="2740" windowWidth="26760" windowHeight="11380" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="League" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <sheet name="Player" sheetId="10" r:id="rId10"/>
     <sheet name="Highlight" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>League_ID</t>
   </si>
@@ -203,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -218,6 +207,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -235,14 +229,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,9 +479,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -508,9 +520,9 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -542,11 +554,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -561,9 +573,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -606,9 +618,9 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -616,7 +628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -624,7 +636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -632,7 +644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -640,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -648,7 +660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -656,7 +668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -680,9 +692,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -696,7 +708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -726,9 +738,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -742,7 +754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -753,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -764,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -784,51 +796,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="str">
-        <f>Team!B2</f>
-        <v>Jamisons</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
       </c>
       <c r="B2">
-        <f>Team!D2</f>
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="str">
-        <f>Team!B3</f>
-        <v>Jamies</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
       </c>
       <c r="B3">
-        <f>Team!D3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="str">
-        <f>Team!B4</f>
-        <v>Leos</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
       </c>
       <c r="B4">
-        <f>Team!D4</f>
         <v>11</v>
       </c>
     </row>
@@ -845,12 +851,12 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -858,7 +864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -866,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -874,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -895,9 +901,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -911,7 +917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -969,9 +975,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
